--- a/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
+++ b/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
@@ -296,11 +296,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -616,7 +616,7 @@
     <col min="9" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="6" customFormat="1">
+    <row r="1" ht="14.95" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -658,7 +658,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -849,31 +849,31 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
-  <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -887,7 +887,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,7 +967,7 @@
     <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="6" customFormat="1">
+    <row r="1" ht="14.95" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
+++ b/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
@@ -242,6 +242,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -252,7 +261,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -272,17 +283,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -292,15 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -616,48 +616,48 @@
     <col min="9" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="4" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.95" s="6" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="5"/>
     </row>
   </sheetData>
@@ -863,12 +863,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,28 +967,28 @@
     <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="4" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.95" s="6" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">

--- a/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
+++ b/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
@@ -297,10 +297,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -616,7 +616,7 @@
     <col min="9" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="6" customFormat="1">
+    <row r="1" ht="14.95" s="5" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -863,12 +863,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
     <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -967,7 +967,7 @@
     <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="6" customFormat="1">
+    <row r="1" ht="14.95" s="5" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
     </row>

--- a/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
+++ b/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana-main/uft-one-ai-sap-fiori-va01-s4hana/Default.xlsx
@@ -242,7 +242,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -251,9 +253,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -292,15 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,26 +616,26 @@
     <col min="9" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="5" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.95" s="6" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -643,22 +643,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,14 +967,14 @@
     <col min="5" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="5" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.95" s="6" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -982,16 +982,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
